--- a/src/main/resources/templates/excel/incidentLog.xlsx
+++ b/src/main/resources/templates/excel/incidentLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Desktop\工作文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C3443C-7337-4147-828E-1F3E82861D63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D44AE7A-788C-471B-BB4B-D219EE972319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1280" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.date}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${e.tableCode}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -156,6 +152,22 @@
   </si>
   <si>
     <t>${e.remarks}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dFormat.format(e.date)}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.time}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.departmentId}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.involveUid}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -283,6 +295,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -290,9 +305,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -584,7 +596,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -614,12 +626,12 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
@@ -637,41 +649,47 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/resources/templates/excel/incidentLog.xlsx
+++ b/src/main/resources/templates/excel/incidentLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D44AE7A-788C-471B-BB4B-D219EE972319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F15AA3-A348-42F2-B186-070EBA33CC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,11 +163,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${e.departmentId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${e.involveUid}</t>
+    <t>${e.departmentCode}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${e.username}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/src/main/resources/templates/excel/incidentLog.xlsx
+++ b/src/main/resources/templates/excel/incidentLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F15AA3-A348-42F2-B186-070EBA33CC8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAEFE6C-0215-4D78-9C0B-924327C278E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="430" yWindow="640" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1090" yWindow="1140" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q2")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -56,7 +56,37 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="list" var="e" lastCell="Q2")</t>
+          <t>jx:each(items="list" var="e" lastCell="Q3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{FC116062-670D-480F-A058-720CF56B8DE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="e.imgs" var="url" lastCell="Q3")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F3052B6-9981-4943-B2B2-AD558F44E74C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="Q3" src="url")</t>
         </r>
       </text>
     </comment>
@@ -593,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -691,6 +721,7 @@
       </c>
       <c r="Q2" s="2"/>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:L1"/>

--- a/src/main/resources/templates/excel/incidentLog.xlsx
+++ b/src/main/resources/templates/excel/incidentLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\works\idea\xg-cctv-manager\src\main\resources\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAEFE6C-0215-4D78-9C0B-924327C278E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F056A-1849-4EB3-9619-46AB7396A1E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1090" yWindow="1140" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="170" yWindow="1040" windowWidth="20510" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="Q2")</t>
         </r>
       </text>
     </comment>
@@ -56,11 +56,11 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="list" var="e" lastCell="Q3")</t>
+          <t>jx:each(items="list" var="e" lastCell="Q2")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{FC116062-670D-480F-A058-720CF56B8DE3}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{922EACE1-8892-4A26-9754-8C4BB9C12262}">
       <text>
         <r>
           <rPr>
@@ -71,22 +71,9 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="e.imgs" var="url" lastCell="Q3")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F3052B6-9981-4943-B2B2-AD558F44E74C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>jx:image(lastCell="Q3" src="url")</t>
+          <t>jx:each(items="e.imgs" var="url" lastCell="Q2" direction="RIGHT")
+jx:image(lastCell="Q2" src="url"
+direction="RIGHT")</t>
         </r>
       </text>
     </comment>
@@ -256,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -316,11 +303,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,6 +338,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,13 +625,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="17" max="17" width="24.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -678,7 +683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="73" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -719,9 +724,20 @@
       <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q6" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="I1:L1"/>
